--- a/3032017XXXX_排料清单.xlsx
+++ b/3032017XXXX_排料清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang&amp;shao\PycharmProjects\腾讯课堂\CAD_Creater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76090542-88D8-4B9E-82E6-C0239D0E3863}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327AB517-CCF6-40F3-901E-F208B16A98AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="11640" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="724">
   <si>
     <t>序号</t>
   </si>
@@ -3498,6 +3498,10 @@
   </si>
   <si>
     <t>JLH613*40*40*7*6*0.4-10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -18699,7 +18703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -19073,6 +19077,264 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -19082,271 +19344,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24213,7 +24223,25 @@
     <cellStyle name="注释 9 2" xfId="4859" xr:uid="{00000000-0005-0000-0000-0000FB120000}"/>
     <cellStyle name="注释 9 2 2" xfId="4860" xr:uid="{00000000-0005-0000-0000-0000FC120000}"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="微软雅黑 Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -25928,26 +25956,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="A2:J79" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
-  <autoFilter ref="A2:J79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="通径" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="件数" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="零件名称" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="材料" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="厚度" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="外径(或长度)" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="内径（或宽度）" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="零件数" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="数量" dataDxfId="43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="A2:K79" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+  <autoFilter ref="A2:K79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="通径" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="件数" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="零件名称" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="材料" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="厚度" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="外径(或长度)" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="内径（或宽度）" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="零件数" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="数量" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{24D9A3F2-BB33-4089-B169-2A5715725201}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_25" displayName="表2_25" ref="A2:J75" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_25" displayName="表2_25" ref="A2:J75" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A2:J75" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="5">
       <filters>
@@ -25956,52 +25985,52 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="通径" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="件数" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="零件名称" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="材料" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="厚度" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="外径(或长度)" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="内径（或宽度）" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="零件数" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="数量" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="通径" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="件数" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="零件名称" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="材料" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="厚度" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="外径(或长度)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="内径（或宽度）" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="零件数" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="数量" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_24" displayName="表2_24" ref="A2:I10" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_24" displayName="表2_24" ref="A2:I10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A2:I10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="序号" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="通径" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="件数" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="零件名称" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="外径(或长度)" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="内径（或宽度）" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="厚度" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="零件数" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="数量" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="序号" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="通径" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="件数" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="零件名称" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="外径(或长度)" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="内径（或宽度）" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="厚度" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="零件数" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="数量" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表2" displayName="表2" ref="A1:I65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表2" displayName="表2" ref="A1:I65" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:I65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="通径" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="件数" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="零件名称" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="外径(或长度)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="内径（或宽度）" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="厚度" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="零件数" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="总数" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="序号" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="通径" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="件数" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="零件名称" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="外径(或长度)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="内径（或宽度）" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="厚度" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="零件数" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="总数" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26331,10 +26360,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -26353,7 +26382,7 @@
     <col min="12" max="16384" width="9" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="109">
         <v>0</v>
       </c>
@@ -26385,7 +26414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A2" s="113" t="s">
         <v>667</v>
       </c>
@@ -26416,8 +26445,11 @@
       <c r="J2" s="116" t="s">
         <v>672</v>
       </c>
+      <c r="K2" s="114" t="s">
+        <v>723</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A3" s="117">
         <v>1</v>
       </c>
@@ -26442,8 +26474,9 @@
         <v>12</v>
       </c>
       <c r="J3" s="123"/>
+      <c r="K3" s="236"/>
     </row>
-    <row r="4" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A4" s="117">
         <v>2</v>
       </c>
@@ -26468,8 +26501,9 @@
         <v>3</v>
       </c>
       <c r="J4" s="123"/>
+      <c r="K4" s="236"/>
     </row>
-    <row r="5" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A5" s="117">
         <v>3</v>
       </c>
@@ -26494,8 +26528,9 @@
         <v>4</v>
       </c>
       <c r="J5" s="123"/>
+      <c r="K5" s="236"/>
     </row>
-    <row r="6" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A6" s="117">
         <v>4</v>
       </c>
@@ -26520,8 +26555,9 @@
         <v>1</v>
       </c>
       <c r="J6" s="123"/>
+      <c r="K6" s="236"/>
     </row>
-    <row r="7" spans="1:10" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A7" s="117">
         <v>5</v>
       </c>
@@ -26546,8 +26582,9 @@
         <v>4</v>
       </c>
       <c r="J7" s="123"/>
+      <c r="K7" s="236"/>
     </row>
-    <row r="8" spans="1:10" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A8" s="117">
         <v>6</v>
       </c>
@@ -26572,8 +26609,9 @@
         <v>1</v>
       </c>
       <c r="J8" s="123"/>
+      <c r="K8" s="236"/>
     </row>
-    <row r="9" spans="1:10" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A9" s="117">
         <v>7</v>
       </c>
@@ -26598,8 +26636,9 @@
         <v>4</v>
       </c>
       <c r="J9" s="123"/>
+      <c r="K9" s="236"/>
     </row>
-    <row r="10" spans="1:10" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A10" s="117">
         <v>5</v>
       </c>
@@ -26628,8 +26667,9 @@
         <v>12</v>
       </c>
       <c r="J10" s="123"/>
+      <c r="K10" s="236"/>
     </row>
-    <row r="11" spans="1:10" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="124" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A11" s="117">
         <v>6</v>
       </c>
@@ -26658,8 +26698,9 @@
         <v>15</v>
       </c>
       <c r="J11" s="123"/>
+      <c r="K11" s="236"/>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="117">
         <v>7</v>
       </c>
@@ -26688,8 +26729,9 @@
         <v>1</v>
       </c>
       <c r="J12" s="120"/>
+      <c r="K12" s="236"/>
     </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="112" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A13" s="117">
         <v>8</v>
       </c>
@@ -26718,8 +26760,9 @@
         <v>1</v>
       </c>
       <c r="J13" s="120"/>
+      <c r="K13" s="237"/>
     </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="112" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A14" s="117">
         <v>9</v>
       </c>
@@ -26748,8 +26791,9 @@
         <v>2</v>
       </c>
       <c r="J14" s="121"/>
+      <c r="K14" s="237"/>
     </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="112" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A15" s="117">
         <v>10</v>
       </c>
@@ -26778,8 +26822,9 @@
         <v>3</v>
       </c>
       <c r="J15" s="121"/>
+      <c r="K15" s="237"/>
     </row>
-    <row r="16" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A16" s="128"/>
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
@@ -26790,8 +26835,9 @@
       <c r="H16" s="127"/>
       <c r="I16" s="126"/>
       <c r="J16" s="133"/>
+      <c r="K16" s="236"/>
     </row>
-    <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A17" s="134"/>
       <c r="B17" s="118"/>
       <c r="C17" s="118"/>
@@ -26802,8 +26848,9 @@
       <c r="H17" s="135"/>
       <c r="I17" s="136"/>
       <c r="J17" s="137"/>
+      <c r="K17" s="236"/>
     </row>
-    <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A18" s="128"/>
       <c r="B18" s="126"/>
       <c r="C18" s="126"/>
@@ -26814,8 +26861,9 @@
       <c r="H18" s="127"/>
       <c r="I18" s="126"/>
       <c r="J18" s="140"/>
+      <c r="K18" s="236"/>
     </row>
-    <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A19" s="141"/>
       <c r="B19" s="138"/>
       <c r="C19" s="138"/>
@@ -26826,8 +26874,9 @@
       <c r="H19" s="139"/>
       <c r="I19" s="138"/>
       <c r="J19" s="142"/>
+      <c r="K19" s="236"/>
     </row>
-    <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A20" s="128"/>
       <c r="B20" s="126"/>
       <c r="C20" s="126"/>
@@ -26838,8 +26887,9 @@
       <c r="H20" s="127"/>
       <c r="I20" s="126"/>
       <c r="J20" s="140"/>
+      <c r="K20" s="236"/>
     </row>
-    <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A21" s="141"/>
       <c r="B21" s="138"/>
       <c r="C21" s="138"/>
@@ -26850,8 +26900,9 @@
       <c r="H21" s="139"/>
       <c r="I21" s="138"/>
       <c r="J21" s="142"/>
+      <c r="K21" s="236"/>
     </row>
-    <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A22" s="128"/>
       <c r="B22" s="126"/>
       <c r="C22" s="126"/>
@@ -26862,8 +26913,9 @@
       <c r="H22" s="127"/>
       <c r="I22" s="126"/>
       <c r="J22" s="140"/>
+      <c r="K22" s="236"/>
     </row>
-    <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A23" s="141"/>
       <c r="B23" s="138"/>
       <c r="C23" s="138"/>
@@ -26874,8 +26926,9 @@
       <c r="H23" s="139"/>
       <c r="I23" s="138"/>
       <c r="J23" s="142"/>
+      <c r="K23" s="236"/>
     </row>
-    <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A24" s="128"/>
       <c r="B24" s="126"/>
       <c r="C24" s="126"/>
@@ -26886,8 +26939,9 @@
       <c r="H24" s="127"/>
       <c r="I24" s="126"/>
       <c r="J24" s="140"/>
+      <c r="K24" s="236"/>
     </row>
-    <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A25" s="141"/>
       <c r="B25" s="138"/>
       <c r="C25" s="138"/>
@@ -26898,8 +26952,9 @@
       <c r="H25" s="139"/>
       <c r="I25" s="138"/>
       <c r="J25" s="142"/>
+      <c r="K25" s="236"/>
     </row>
-    <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A26" s="128"/>
       <c r="B26" s="126"/>
       <c r="C26" s="126"/>
@@ -26910,8 +26965,9 @@
       <c r="H26" s="127"/>
       <c r="I26" s="126"/>
       <c r="J26" s="140"/>
+      <c r="K26" s="236"/>
     </row>
-    <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A27" s="141"/>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
@@ -26922,8 +26978,9 @@
       <c r="H27" s="139"/>
       <c r="I27" s="138"/>
       <c r="J27" s="142"/>
+      <c r="K27" s="236"/>
     </row>
-    <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A28" s="128"/>
       <c r="B28" s="126"/>
       <c r="C28" s="126"/>
@@ -26934,8 +26991,9 @@
       <c r="H28" s="127"/>
       <c r="I28" s="126"/>
       <c r="J28" s="140"/>
+      <c r="K28" s="236"/>
     </row>
-    <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A29" s="141"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
@@ -26946,8 +27004,9 @@
       <c r="H29" s="139"/>
       <c r="I29" s="138"/>
       <c r="J29" s="142"/>
+      <c r="K29" s="236"/>
     </row>
-    <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A30" s="128"/>
       <c r="B30" s="126"/>
       <c r="C30" s="126"/>
@@ -26958,8 +27017,9 @@
       <c r="H30" s="127"/>
       <c r="I30" s="126"/>
       <c r="J30" s="140"/>
+      <c r="K30" s="236"/>
     </row>
-    <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A31" s="141"/>
       <c r="B31" s="138"/>
       <c r="C31" s="138"/>
@@ -26970,8 +27030,9 @@
       <c r="H31" s="139"/>
       <c r="I31" s="138"/>
       <c r="J31" s="142"/>
+      <c r="K31" s="236"/>
     </row>
-    <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A32" s="128"/>
       <c r="B32" s="126"/>
       <c r="C32" s="126"/>
@@ -26982,8 +27043,9 @@
       <c r="H32" s="127"/>
       <c r="I32" s="126"/>
       <c r="J32" s="140"/>
+      <c r="K32" s="236"/>
     </row>
-    <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A33" s="141"/>
       <c r="B33" s="138"/>
       <c r="C33" s="138"/>
@@ -26994,8 +27056,9 @@
       <c r="H33" s="139"/>
       <c r="I33" s="138"/>
       <c r="J33" s="142"/>
+      <c r="K33" s="236"/>
     </row>
-    <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A34" s="128"/>
       <c r="B34" s="126"/>
       <c r="C34" s="126"/>
@@ -27006,8 +27069,9 @@
       <c r="H34" s="127"/>
       <c r="I34" s="126"/>
       <c r="J34" s="140"/>
+      <c r="K34" s="236"/>
     </row>
-    <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A35" s="141"/>
       <c r="B35" s="138"/>
       <c r="C35" s="138"/>
@@ -27018,8 +27082,9 @@
       <c r="H35" s="139"/>
       <c r="I35" s="138"/>
       <c r="J35" s="142"/>
+      <c r="K35" s="236"/>
     </row>
-    <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A36" s="128"/>
       <c r="B36" s="126"/>
       <c r="C36" s="126"/>
@@ -27030,8 +27095,9 @@
       <c r="H36" s="127"/>
       <c r="I36" s="126"/>
       <c r="J36" s="140"/>
+      <c r="K36" s="236"/>
     </row>
-    <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A37" s="141"/>
       <c r="B37" s="138"/>
       <c r="C37" s="138"/>
@@ -27042,8 +27108,9 @@
       <c r="H37" s="139"/>
       <c r="I37" s="138"/>
       <c r="J37" s="142"/>
+      <c r="K37" s="236"/>
     </row>
-    <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A38" s="128"/>
       <c r="B38" s="126"/>
       <c r="C38" s="126"/>
@@ -27054,8 +27121,9 @@
       <c r="H38" s="127"/>
       <c r="I38" s="126"/>
       <c r="J38" s="140"/>
+      <c r="K38" s="236"/>
     </row>
-    <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A39" s="141"/>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
@@ -27066,8 +27134,9 @@
       <c r="H39" s="139"/>
       <c r="I39" s="138"/>
       <c r="J39" s="142"/>
+      <c r="K39" s="236"/>
     </row>
-    <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A40" s="128"/>
       <c r="B40" s="126"/>
       <c r="C40" s="126"/>
@@ -27078,8 +27147,9 @@
       <c r="H40" s="127"/>
       <c r="I40" s="126"/>
       <c r="J40" s="140"/>
+      <c r="K40" s="236"/>
     </row>
-    <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A41" s="141"/>
       <c r="B41" s="138"/>
       <c r="C41" s="138"/>
@@ -27090,8 +27160,9 @@
       <c r="H41" s="139"/>
       <c r="I41" s="138"/>
       <c r="J41" s="142"/>
+      <c r="K41" s="236"/>
     </row>
-    <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A42" s="128"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
@@ -27102,8 +27173,9 @@
       <c r="H42" s="127"/>
       <c r="I42" s="126"/>
       <c r="J42" s="140"/>
+      <c r="K42" s="236"/>
     </row>
-    <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A43" s="141"/>
       <c r="B43" s="138"/>
       <c r="C43" s="138"/>
@@ -27114,8 +27186,9 @@
       <c r="H43" s="139"/>
       <c r="I43" s="138"/>
       <c r="J43" s="142"/>
+      <c r="K43" s="236"/>
     </row>
-    <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A44" s="128"/>
       <c r="B44" s="126"/>
       <c r="C44" s="126"/>
@@ -27126,8 +27199,9 @@
       <c r="H44" s="127"/>
       <c r="I44" s="126"/>
       <c r="J44" s="140"/>
+      <c r="K44" s="236"/>
     </row>
-    <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A45" s="141"/>
       <c r="B45" s="138"/>
       <c r="C45" s="138"/>
@@ -27138,8 +27212,9 @@
       <c r="H45" s="139"/>
       <c r="I45" s="138"/>
       <c r="J45" s="142"/>
+      <c r="K45" s="236"/>
     </row>
-    <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A46" s="128"/>
       <c r="B46" s="126"/>
       <c r="C46" s="126"/>
@@ -27150,8 +27225,9 @@
       <c r="H46" s="127"/>
       <c r="I46" s="126"/>
       <c r="J46" s="140"/>
+      <c r="K46" s="236"/>
     </row>
-    <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A47" s="141"/>
       <c r="B47" s="138"/>
       <c r="C47" s="138"/>
@@ -27162,8 +27238,9 @@
       <c r="H47" s="139"/>
       <c r="I47" s="138"/>
       <c r="J47" s="142"/>
+      <c r="K47" s="236"/>
     </row>
-    <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A48" s="128"/>
       <c r="B48" s="126"/>
       <c r="C48" s="126"/>
@@ -27174,8 +27251,9 @@
       <c r="H48" s="127"/>
       <c r="I48" s="126"/>
       <c r="J48" s="140"/>
+      <c r="K48" s="236"/>
     </row>
-    <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A49" s="141"/>
       <c r="B49" s="138"/>
       <c r="C49" s="138"/>
@@ -27186,8 +27264,9 @@
       <c r="H49" s="139"/>
       <c r="I49" s="138"/>
       <c r="J49" s="142"/>
+      <c r="K49" s="236"/>
     </row>
-    <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A50" s="128"/>
       <c r="B50" s="126"/>
       <c r="C50" s="126"/>
@@ -27198,8 +27277,9 @@
       <c r="H50" s="127"/>
       <c r="I50" s="126"/>
       <c r="J50" s="140"/>
+      <c r="K50" s="236"/>
     </row>
-    <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A51" s="141"/>
       <c r="B51" s="138"/>
       <c r="C51" s="138"/>
@@ -27210,8 +27290,9 @@
       <c r="H51" s="139"/>
       <c r="I51" s="138"/>
       <c r="J51" s="142"/>
+      <c r="K51" s="236"/>
     </row>
-    <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A52" s="128"/>
       <c r="B52" s="126"/>
       <c r="C52" s="126"/>
@@ -27222,8 +27303,9 @@
       <c r="H52" s="127"/>
       <c r="I52" s="126"/>
       <c r="J52" s="140"/>
+      <c r="K52" s="236"/>
     </row>
-    <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A53" s="141"/>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
@@ -27234,8 +27316,9 @@
       <c r="H53" s="139"/>
       <c r="I53" s="138"/>
       <c r="J53" s="142"/>
+      <c r="K53" s="236"/>
     </row>
-    <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A54" s="128"/>
       <c r="B54" s="126"/>
       <c r="C54" s="126"/>
@@ -27246,8 +27329,9 @@
       <c r="H54" s="127"/>
       <c r="I54" s="126"/>
       <c r="J54" s="140"/>
+      <c r="K54" s="236"/>
     </row>
-    <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A55" s="141"/>
       <c r="B55" s="138"/>
       <c r="C55" s="138"/>
@@ -27258,8 +27342,9 @@
       <c r="H55" s="139"/>
       <c r="I55" s="138"/>
       <c r="J55" s="142"/>
+      <c r="K55" s="236"/>
     </row>
-    <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A56" s="128"/>
       <c r="B56" s="126"/>
       <c r="C56" s="126"/>
@@ -27270,8 +27355,9 @@
       <c r="H56" s="127"/>
       <c r="I56" s="126"/>
       <c r="J56" s="140"/>
+      <c r="K56" s="236"/>
     </row>
-    <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A57" s="141"/>
       <c r="B57" s="138"/>
       <c r="C57" s="138"/>
@@ -27282,8 +27368,9 @@
       <c r="H57" s="139"/>
       <c r="I57" s="138"/>
       <c r="J57" s="142"/>
+      <c r="K57" s="236"/>
     </row>
-    <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A58" s="128"/>
       <c r="B58" s="126"/>
       <c r="C58" s="126"/>
@@ -27294,8 +27381,9 @@
       <c r="H58" s="127"/>
       <c r="I58" s="126"/>
       <c r="J58" s="140"/>
+      <c r="K58" s="236"/>
     </row>
-    <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A59" s="141"/>
       <c r="B59" s="138"/>
       <c r="C59" s="138"/>
@@ -27306,8 +27394,9 @@
       <c r="H59" s="139"/>
       <c r="I59" s="138"/>
       <c r="J59" s="142"/>
+      <c r="K59" s="236"/>
     </row>
-    <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A60" s="128"/>
       <c r="B60" s="126"/>
       <c r="C60" s="126"/>
@@ -27318,8 +27407,9 @@
       <c r="H60" s="127"/>
       <c r="I60" s="126"/>
       <c r="J60" s="140"/>
+      <c r="K60" s="236"/>
     </row>
-    <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A61" s="141"/>
       <c r="B61" s="138"/>
       <c r="C61" s="138"/>
@@ -27330,8 +27420,9 @@
       <c r="H61" s="139"/>
       <c r="I61" s="138"/>
       <c r="J61" s="142"/>
+      <c r="K61" s="236"/>
     </row>
-    <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A62" s="128"/>
       <c r="B62" s="126"/>
       <c r="C62" s="126"/>
@@ -27342,8 +27433,9 @@
       <c r="H62" s="127"/>
       <c r="I62" s="126"/>
       <c r="J62" s="140"/>
+      <c r="K62" s="236"/>
     </row>
-    <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A63" s="141"/>
       <c r="B63" s="138"/>
       <c r="C63" s="138"/>
@@ -27354,8 +27446,9 @@
       <c r="H63" s="139"/>
       <c r="I63" s="138"/>
       <c r="J63" s="142"/>
+      <c r="K63" s="236"/>
     </row>
-    <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A64" s="128"/>
       <c r="B64" s="126"/>
       <c r="C64" s="126"/>
@@ -27366,8 +27459,9 @@
       <c r="H64" s="127"/>
       <c r="I64" s="126"/>
       <c r="J64" s="140"/>
+      <c r="K64" s="236"/>
     </row>
-    <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A65" s="141"/>
       <c r="B65" s="138"/>
       <c r="C65" s="138"/>
@@ -27378,8 +27472,9 @@
       <c r="H65" s="139"/>
       <c r="I65" s="138"/>
       <c r="J65" s="142"/>
+      <c r="K65" s="236"/>
     </row>
-    <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A66" s="128"/>
       <c r="B66" s="126"/>
       <c r="C66" s="126"/>
@@ -27390,8 +27485,9 @@
       <c r="H66" s="127"/>
       <c r="I66" s="126"/>
       <c r="J66" s="140"/>
+      <c r="K66" s="236"/>
     </row>
-    <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A67" s="141"/>
       <c r="B67" s="138"/>
       <c r="C67" s="138"/>
@@ -27402,8 +27498,9 @@
       <c r="H67" s="139"/>
       <c r="I67" s="138"/>
       <c r="J67" s="142"/>
+      <c r="K67" s="236"/>
     </row>
-    <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A68" s="128"/>
       <c r="B68" s="126"/>
       <c r="C68" s="126"/>
@@ -27414,8 +27511,9 @@
       <c r="H68" s="127"/>
       <c r="I68" s="126"/>
       <c r="J68" s="140"/>
+      <c r="K68" s="236"/>
     </row>
-    <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A69" s="141"/>
       <c r="B69" s="138"/>
       <c r="C69" s="138"/>
@@ -27426,8 +27524,9 @@
       <c r="H69" s="139"/>
       <c r="I69" s="138"/>
       <c r="J69" s="142"/>
+      <c r="K69" s="236"/>
     </row>
-    <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A70" s="128"/>
       <c r="B70" s="126"/>
       <c r="C70" s="126"/>
@@ -27438,8 +27537,9 @@
       <c r="H70" s="127"/>
       <c r="I70" s="126"/>
       <c r="J70" s="140"/>
+      <c r="K70" s="236"/>
     </row>
-    <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A71" s="141"/>
       <c r="B71" s="138"/>
       <c r="C71" s="138"/>
@@ -27450,8 +27550,9 @@
       <c r="H71" s="139"/>
       <c r="I71" s="138"/>
       <c r="J71" s="142"/>
+      <c r="K71" s="236"/>
     </row>
-    <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A72" s="128"/>
       <c r="B72" s="126"/>
       <c r="C72" s="126"/>
@@ -27462,8 +27563,9 @@
       <c r="H72" s="127"/>
       <c r="I72" s="126"/>
       <c r="J72" s="140"/>
+      <c r="K72" s="236"/>
     </row>
-    <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A73" s="141"/>
       <c r="B73" s="138"/>
       <c r="C73" s="138"/>
@@ -27474,8 +27576,9 @@
       <c r="H73" s="139"/>
       <c r="I73" s="138"/>
       <c r="J73" s="142"/>
+      <c r="K73" s="236"/>
     </row>
-    <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A74" s="128"/>
       <c r="B74" s="126"/>
       <c r="C74" s="126"/>
@@ -27486,8 +27589,9 @@
       <c r="H74" s="127"/>
       <c r="I74" s="126"/>
       <c r="J74" s="140"/>
+      <c r="K74" s="236"/>
     </row>
-    <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A75" s="141"/>
       <c r="B75" s="138"/>
       <c r="C75" s="138"/>
@@ -27498,8 +27602,9 @@
       <c r="H75" s="139"/>
       <c r="I75" s="138"/>
       <c r="J75" s="142"/>
+      <c r="K75" s="236"/>
     </row>
-    <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A76" s="128"/>
       <c r="B76" s="126"/>
       <c r="C76" s="126"/>
@@ -27510,8 +27615,9 @@
       <c r="H76" s="127"/>
       <c r="I76" s="126"/>
       <c r="J76" s="140"/>
+      <c r="K76" s="236"/>
     </row>
-    <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A77" s="141"/>
       <c r="B77" s="138"/>
       <c r="C77" s="138"/>
@@ -27522,8 +27628,9 @@
       <c r="H77" s="139"/>
       <c r="I77" s="138"/>
       <c r="J77" s="142"/>
+      <c r="K77" s="236"/>
     </row>
-    <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A78" s="128"/>
       <c r="B78" s="126"/>
       <c r="C78" s="126"/>
@@ -27534,8 +27641,9 @@
       <c r="H78" s="127"/>
       <c r="I78" s="126"/>
       <c r="J78" s="140"/>
+      <c r="K78" s="236"/>
     </row>
-    <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A79" s="129"/>
       <c r="B79" s="130"/>
       <c r="C79" s="130"/>
@@ -27546,6 +27654,7 @@
       <c r="H79" s="131"/>
       <c r="I79" s="130"/>
       <c r="J79" s="132"/>
+      <c r="K79" s="236"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -31957,48 +32066,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145" t="s">
+      <c r="H1" s="230"/>
+      <c r="I1" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="145"/>
+      <c r="J1" s="231"/>
       <c r="K1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="155" t="s">
+      <c r="L1" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="155" t="s">
+      <c r="M1" s="201" t="s">
         <v>67</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="150" t="s">
+      <c r="O1" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="163" t="s">
         <v>70</v>
       </c>
       <c r="Q1" s="17" t="s">
@@ -32007,38 +32116,38 @@
       <c r="R1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="150" t="s">
+      <c r="S1" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="150" t="s">
+      <c r="T1" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="219" t="s">
+      <c r="U1" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="156" t="s">
+      <c r="V1" s="162" t="s">
         <v>76</v>
       </c>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
-      <c r="Y1" s="148" t="s">
+      <c r="Y1" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="148" t="s">
+      <c r="Z1" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="230" t="s">
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="154" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
+      <c r="A2" s="161"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="150"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="19" t="s">
         <v>80</v>
       </c>
@@ -32054,29 +32163,29 @@
       <c r="K2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
       <c r="N2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="150"/>
-      <c r="P2" s="157"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="163"/>
       <c r="Q2" s="16" t="s">
         <v>84</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="157"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="163"/>
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="226"/>
-      <c r="AB2" s="230"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="154"/>
       <c r="AD2" s="66"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32150,7 +32259,7 @@
         <v>98</v>
       </c>
       <c r="Z3" s="67"/>
-      <c r="AA3" s="163"/>
+      <c r="AA3" s="148"/>
       <c r="AB3" s="24" t="s">
         <v>99</v>
       </c>
@@ -32226,7 +32335,7 @@
         <v>98</v>
       </c>
       <c r="Z4" s="67"/>
-      <c r="AA4" s="164"/>
+      <c r="AA4" s="149"/>
       <c r="AB4" s="24" t="s">
         <v>99</v>
       </c>
@@ -32303,7 +32412,7 @@
         <v>98</v>
       </c>
       <c r="Z5" s="67"/>
-      <c r="AA5" s="164"/>
+      <c r="AA5" s="149"/>
       <c r="AB5" s="24" t="s">
         <v>99</v>
       </c>
@@ -32380,7 +32489,7 @@
         <v>98</v>
       </c>
       <c r="Z6" s="69"/>
-      <c r="AA6" s="164"/>
+      <c r="AA6" s="149"/>
       <c r="AB6" s="27"/>
       <c r="AD6" s="70"/>
     </row>
@@ -32455,7 +32564,7 @@
         <v>98</v>
       </c>
       <c r="Z7" s="67"/>
-      <c r="AA7" s="164"/>
+      <c r="AA7" s="149"/>
       <c r="AB7" s="24" t="s">
         <v>99</v>
       </c>
@@ -32531,7 +32640,7 @@
         <v>98</v>
       </c>
       <c r="Z8" s="71"/>
-      <c r="AA8" s="164"/>
+      <c r="AA8" s="149"/>
       <c r="AB8" s="24" t="s">
         <v>99</v>
       </c>
@@ -32607,7 +32716,7 @@
         <v>98</v>
       </c>
       <c r="Z9" s="67"/>
-      <c r="AA9" s="164"/>
+      <c r="AA9" s="149"/>
       <c r="AB9" s="24" t="s">
         <v>99</v>
       </c>
@@ -32683,7 +32792,7 @@
         <v>98</v>
       </c>
       <c r="Z10" s="67"/>
-      <c r="AA10" s="165"/>
+      <c r="AA10" s="150"/>
       <c r="AB10" s="24" t="s">
         <v>99</v>
       </c>
@@ -32704,16 +32813,16 @@
       <c r="E11" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="156" t="s">
+      <c r="F11" s="162" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="169">
         <v>19.466999999999999</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="203">
         <v>1.6</v>
       </c>
-      <c r="I11" s="176">
+      <c r="I11" s="171">
         <v>13.5</v>
       </c>
       <c r="J11" s="21">
@@ -32725,10 +32834,10 @@
       <c r="L11" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="201" t="s">
+      <c r="M11" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="N11" s="160" t="s">
+      <c r="N11" s="182" t="s">
         <v>92</v>
       </c>
       <c r="O11" s="25" t="s">
@@ -32749,15 +32858,15 @@
       <c r="T11" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="U11" s="170"/>
+      <c r="U11" s="168"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
       <c r="X11" s="27"/>
-      <c r="Y11" s="223" t="s">
+      <c r="Y11" s="164" t="s">
         <v>159</v>
       </c>
       <c r="Z11" s="69"/>
-      <c r="AA11" s="163"/>
+      <c r="AA11" s="148"/>
       <c r="AB11" s="27" t="s">
         <v>160</v>
       </c>
@@ -32778,10 +32887,10 @@
       <c r="E12" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="157"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="177"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="172"/>
       <c r="J12" s="21">
         <v>-3.7</v>
       </c>
@@ -32791,8 +32900,8 @@
       <c r="L12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="162"/>
-      <c r="N12" s="212"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="190"/>
       <c r="O12" s="25" t="s">
         <v>156</v>
       </c>
@@ -32811,13 +32920,13 @@
       <c r="T12" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="U12" s="170"/>
+      <c r="U12" s="168"/>
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
-      <c r="Y12" s="223"/>
+      <c r="Y12" s="164"/>
       <c r="Z12" s="69"/>
-      <c r="AA12" s="164"/>
+      <c r="AA12" s="149"/>
       <c r="AB12" s="27" t="s">
         <v>160</v>
       </c>
@@ -32838,16 +32947,16 @@
       <c r="E13" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="171">
+      <c r="G13" s="222">
         <v>19.466999999999999</v>
       </c>
-      <c r="H13" s="162">
+      <c r="H13" s="203">
         <v>3</v>
       </c>
-      <c r="I13" s="190" t="s">
+      <c r="I13" s="210" t="s">
         <v>169</v>
       </c>
       <c r="J13" s="21">
@@ -32859,10 +32968,10 @@
       <c r="L13" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="201" t="s">
+      <c r="M13" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="N13" s="160" t="s">
+      <c r="N13" s="182" t="s">
         <v>92</v>
       </c>
       <c r="O13" s="25" t="s">
@@ -32880,7 +32989,7 @@
       <c r="S13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="T13" s="156" t="s">
+      <c r="T13" s="162" t="s">
         <v>149</v>
       </c>
       <c r="U13" s="169" t="s">
@@ -32889,9 +32998,9 @@
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
       <c r="X13" s="27"/>
-      <c r="Y13" s="223"/>
+      <c r="Y13" s="164"/>
       <c r="Z13" s="69"/>
-      <c r="AA13" s="164"/>
+      <c r="AA13" s="149"/>
       <c r="AB13" s="27" t="s">
         <v>160</v>
       </c>
@@ -32912,10 +33021,10 @@
       <c r="E14" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="156"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="191"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="211"/>
       <c r="J14" s="21">
         <v>-2.5</v>
       </c>
@@ -32925,8 +33034,8 @@
       <c r="L14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="162"/>
-      <c r="N14" s="212"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="190"/>
       <c r="O14" s="25" t="s">
         <v>156</v>
       </c>
@@ -32942,16 +33051,16 @@
       <c r="S14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="T14" s="157"/>
-      <c r="U14" s="220"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="170"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
-      <c r="Y14" s="223" t="s">
+      <c r="Y14" s="164" t="s">
         <v>159</v>
       </c>
       <c r="Z14" s="69"/>
-      <c r="AA14" s="164"/>
+      <c r="AA14" s="149"/>
       <c r="AB14" s="27" t="s">
         <v>160</v>
       </c>
@@ -32975,10 +33084,10 @@
       <c r="F15" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="173">
+      <c r="G15" s="224">
         <v>23.913</v>
       </c>
-      <c r="H15" s="163">
+      <c r="H15" s="148">
         <v>1.6</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -32993,10 +33102,10 @@
       <c r="L15" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="201" t="s">
+      <c r="M15" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="160" t="s">
+      <c r="N15" s="182" t="s">
         <v>92</v>
       </c>
       <c r="O15" s="25" t="s">
@@ -33014,7 +33123,7 @@
       <c r="S15" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="T15" s="156" t="s">
+      <c r="T15" s="162" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="169" t="s">
@@ -33023,9 +33132,9 @@
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
       <c r="X15" s="27"/>
-      <c r="Y15" s="223"/>
+      <c r="Y15" s="164"/>
       <c r="Z15" s="69"/>
-      <c r="AA15" s="164"/>
+      <c r="AA15" s="149"/>
       <c r="AB15" s="27"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -33047,8 +33156,8 @@
       <c r="F16" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="174"/>
-      <c r="H16" s="164"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="149"/>
       <c r="I16" s="21" t="s">
         <v>177</v>
       </c>
@@ -33061,8 +33170,8 @@
       <c r="L16" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="162"/>
-      <c r="N16" s="206"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="183"/>
       <c r="O16" s="25" t="s">
         <v>93</v>
       </c>
@@ -33078,16 +33187,16 @@
       <c r="S16" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="T16" s="157"/>
-      <c r="U16" s="170"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="168"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="27"/>
-      <c r="Y16" s="223" t="s">
+      <c r="Y16" s="164" t="s">
         <v>159</v>
       </c>
       <c r="Z16" s="69"/>
-      <c r="AA16" s="164"/>
+      <c r="AA16" s="149"/>
       <c r="AB16" s="27"/>
       <c r="AD16" s="70"/>
     </row>
@@ -33110,8 +33219,8 @@
       <c r="F17" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="175"/>
-      <c r="H17" s="165"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="150"/>
       <c r="I17" s="28">
         <v>168</v>
       </c>
@@ -33124,8 +33233,8 @@
       <c r="L17" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="M17" s="162"/>
-      <c r="N17" s="212"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="190"/>
       <c r="O17" s="21" t="s">
         <v>193</v>
       </c>
@@ -33141,14 +33250,14 @@
       <c r="S17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T17" s="157"/>
-      <c r="U17" s="170"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="168"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
-      <c r="Y17" s="223"/>
+      <c r="Y17" s="164"/>
       <c r="Z17" s="67"/>
-      <c r="AA17" s="164"/>
+      <c r="AA17" s="149"/>
       <c r="AB17" s="24"/>
       <c r="AD17" s="68"/>
     </row>
@@ -33168,16 +33277,16 @@
       <c r="E18" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="158" t="s">
+      <c r="F18" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="176">
+      <c r="G18" s="171">
         <v>32.795999999999999</v>
       </c>
-      <c r="H18" s="154">
+      <c r="H18" s="194">
         <v>3</v>
       </c>
-      <c r="I18" s="192" t="s">
+      <c r="I18" s="212" t="s">
         <v>198</v>
       </c>
       <c r="J18" s="21">
@@ -33189,10 +33298,10 @@
       <c r="L18" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="M18" s="153" t="s">
+      <c r="M18" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="167" t="s">
+      <c r="N18" s="187" t="s">
         <v>92</v>
       </c>
       <c r="O18" s="21" t="s">
@@ -33210,14 +33319,14 @@
       <c r="S18" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="T18" s="157"/>
-      <c r="U18" s="170"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="168"/>
       <c r="V18" s="24"/>
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
-      <c r="Y18" s="223"/>
+      <c r="Y18" s="164"/>
       <c r="Z18" s="67"/>
-      <c r="AA18" s="164"/>
+      <c r="AA18" s="149"/>
       <c r="AB18" s="27" t="s">
         <v>160</v>
       </c>
@@ -33238,10 +33347,10 @@
       <c r="E19" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="193"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="21">
         <v>-3.7</v>
       </c>
@@ -33251,8 +33360,8 @@
       <c r="L19" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="M19" s="154"/>
-      <c r="N19" s="211"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="189"/>
       <c r="O19" s="21" t="s">
         <v>156</v>
       </c>
@@ -33268,18 +33377,18 @@
       <c r="S19" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="T19" s="158" t="s">
+      <c r="T19" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="U19" s="176" t="s">
+      <c r="U19" s="171" t="s">
         <v>204</v>
       </c>
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
-      <c r="Y19" s="223"/>
+      <c r="Y19" s="164"/>
       <c r="Z19" s="67"/>
-      <c r="AA19" s="164"/>
+      <c r="AA19" s="149"/>
       <c r="AB19" s="27" t="s">
         <v>160</v>
       </c>
@@ -33300,10 +33409,10 @@
       <c r="E20" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="194"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="214"/>
       <c r="J20" s="21" t="s">
         <v>207</v>
       </c>
@@ -33313,8 +33422,8 @@
       <c r="L20" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="188"/>
       <c r="O20" s="21" t="s">
         <v>156</v>
       </c>
@@ -33330,16 +33439,16 @@
       <c r="S20" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="T20" s="159"/>
-      <c r="U20" s="177"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="172"/>
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
-      <c r="Y20" s="224" t="s">
+      <c r="Y20" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z20" s="67"/>
-      <c r="AA20" s="164"/>
+      <c r="AA20" s="149"/>
       <c r="AB20" s="27" t="s">
         <v>160</v>
       </c>
@@ -33360,13 +33469,13 @@
       <c r="E21" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="176" t="s">
+      <c r="G21" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="H21" s="153">
+      <c r="H21" s="193">
         <v>1.6</v>
       </c>
       <c r="I21" s="21">
@@ -33379,10 +33488,10 @@
       <c r="L21" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="153" t="s">
+      <c r="M21" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="167" t="s">
+      <c r="N21" s="187" t="s">
         <v>92</v>
       </c>
       <c r="O21" s="21" t="s">
@@ -33400,16 +33509,16 @@
       <c r="S21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T21" s="159"/>
-      <c r="U21" s="177"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="172"/>
       <c r="V21" s="62" t="s">
         <v>216</v>
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
-      <c r="Y21" s="224"/>
+      <c r="Y21" s="155"/>
       <c r="Z21" s="67"/>
-      <c r="AA21" s="164"/>
+      <c r="AA21" s="149"/>
       <c r="AB21" s="24"/>
     </row>
     <row r="22" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33428,9 +33537,9 @@
       <c r="E22" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F22" s="159"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="154"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="194"/>
       <c r="I22" s="21" t="s">
         <v>177</v>
       </c>
@@ -33443,8 +33552,8 @@
       <c r="L22" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="M22" s="154"/>
-      <c r="N22" s="210"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="21" t="s">
         <v>119</v>
       </c>
@@ -33460,18 +33569,18 @@
       <c r="S22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T22" s="158" t="s">
+      <c r="T22" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="U22" s="176" t="s">
+      <c r="U22" s="171" t="s">
         <v>204</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
-      <c r="Y22" s="224"/>
+      <c r="Y22" s="155"/>
       <c r="Z22" s="67"/>
-      <c r="AA22" s="164"/>
+      <c r="AA22" s="149"/>
       <c r="AB22" s="24"/>
       <c r="AD22" s="68"/>
     </row>
@@ -33494,10 +33603,10 @@
       <c r="F23" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="176" t="s">
+      <c r="G23" s="171" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="194">
         <v>3</v>
       </c>
       <c r="I23" s="21">
@@ -33512,10 +33621,10 @@
       <c r="L23" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="M23" s="153" t="s">
+      <c r="M23" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="167" t="s">
+      <c r="N23" s="187" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="21" t="s">
@@ -33533,16 +33642,16 @@
       <c r="S23" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T23" s="159"/>
-      <c r="U23" s="177"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="172"/>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
       <c r="X23" s="24"/>
-      <c r="Y23" s="224" t="s">
+      <c r="Y23" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z23" s="67"/>
-      <c r="AA23" s="164"/>
+      <c r="AA23" s="149"/>
       <c r="AB23" s="24"/>
     </row>
     <row r="24" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33564,8 +33673,8 @@
       <c r="F24" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="177"/>
-      <c r="H24" s="154"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="194"/>
       <c r="I24" s="21">
         <v>125.1</v>
       </c>
@@ -33578,8 +33687,8 @@
       <c r="L24" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="M24" s="154"/>
-      <c r="N24" s="211"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="189"/>
       <c r="O24" s="21" t="s">
         <v>119</v>
       </c>
@@ -33595,7 +33704,7 @@
       <c r="S24" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T24" s="158" t="s">
+      <c r="T24" s="165" t="s">
         <v>149</v>
       </c>
       <c r="U24" s="37" t="s">
@@ -33604,9 +33713,9 @@
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
-      <c r="Y24" s="224"/>
+      <c r="Y24" s="155"/>
       <c r="Z24" s="67"/>
-      <c r="AA24" s="164"/>
+      <c r="AA24" s="149"/>
       <c r="AB24" s="24"/>
     </row>
     <row r="25" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33628,8 +33737,8 @@
       <c r="F25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="177"/>
-      <c r="H25" s="154"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="194"/>
       <c r="I25" s="21" t="s">
         <v>233</v>
       </c>
@@ -33642,8 +33751,8 @@
       <c r="L25" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="154"/>
-      <c r="N25" s="211"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="189"/>
       <c r="O25" s="21" t="s">
         <v>119</v>
       </c>
@@ -33659,18 +33768,18 @@
       <c r="S25" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="159"/>
+      <c r="T25" s="166"/>
       <c r="U25" s="37" t="s">
         <v>122</v>
       </c>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
-      <c r="Y25" s="224" t="s">
+      <c r="Y25" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z25" s="67"/>
-      <c r="AA25" s="164"/>
+      <c r="AA25" s="149"/>
       <c r="AB25" s="24"/>
     </row>
     <row r="26" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33692,8 +33801,8 @@
       <c r="F26" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="177"/>
-      <c r="H26" s="154"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="194"/>
       <c r="I26" s="21" t="s">
         <v>233</v>
       </c>
@@ -33706,8 +33815,8 @@
       <c r="L26" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="M26" s="154"/>
-      <c r="N26" s="210"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="188"/>
       <c r="O26" s="21" t="s">
         <v>119</v>
       </c>
@@ -33723,16 +33832,16 @@
       <c r="S26" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T26" s="159"/>
+      <c r="T26" s="166"/>
       <c r="U26" s="37" t="s">
         <v>122</v>
       </c>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
-      <c r="Y26" s="224"/>
+      <c r="Y26" s="155"/>
       <c r="Z26" s="67"/>
-      <c r="AA26" s="164"/>
+      <c r="AA26" s="149"/>
       <c r="AB26" s="24"/>
     </row>
     <row r="27" spans="1:30" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33754,26 +33863,26 @@
       <c r="F27" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="178">
+      <c r="G27" s="174">
         <v>154.29</v>
       </c>
-      <c r="H27" s="166">
+      <c r="H27" s="205">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I27" s="178" t="s">
+      <c r="I27" s="174" t="s">
         <v>246</v>
       </c>
-      <c r="J27" s="166" t="s">
+      <c r="J27" s="205" t="s">
         <v>247</v>
       </c>
       <c r="K27" s="50"/>
       <c r="L27" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="M27" s="202" t="s">
+      <c r="M27" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="N27" s="213" t="s">
+      <c r="N27" s="191" t="s">
         <v>134</v>
       </c>
       <c r="O27" s="42" t="s">
@@ -33791,20 +33900,20 @@
       <c r="S27" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="T27" s="215" t="s">
+      <c r="T27" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="U27" s="221" t="s">
+      <c r="U27" s="173" t="s">
         <v>251</v>
       </c>
       <c r="V27" s="62"/>
       <c r="W27" s="62"/>
       <c r="X27" s="62"/>
-      <c r="Y27" s="224"/>
+      <c r="Y27" s="155"/>
       <c r="Z27" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="AA27" s="164"/>
+      <c r="AA27" s="149"/>
       <c r="AB27" s="62"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33826,16 +33935,16 @@
       <c r="F28" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="178"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="166"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="205"/>
       <c r="K28" s="50"/>
       <c r="L28" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="M28" s="202"/>
-      <c r="N28" s="214"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="192"/>
       <c r="O28" s="42" t="s">
         <v>93</v>
       </c>
@@ -33849,18 +33958,18 @@
         <v>50</v>
       </c>
       <c r="S28" s="40"/>
-      <c r="T28" s="216"/>
-      <c r="U28" s="178"/>
+      <c r="T28" s="179"/>
+      <c r="U28" s="174"/>
       <c r="V28" s="62"/>
       <c r="W28" s="62"/>
       <c r="X28" s="62"/>
-      <c r="Y28" s="224" t="s">
+      <c r="Y28" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z28" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="AA28" s="164"/>
+      <c r="AA28" s="149"/>
       <c r="AB28" s="62"/>
     </row>
     <row r="29" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33879,19 +33988,19 @@
       <c r="E29" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F29" s="158" t="s">
+      <c r="F29" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="176">
+      <c r="G29" s="171">
         <v>264.00599999999997</v>
       </c>
-      <c r="H29" s="154">
+      <c r="H29" s="194">
         <v>0.6</v>
       </c>
-      <c r="I29" s="195">
+      <c r="I29" s="215">
         <v>264</v>
       </c>
-      <c r="J29" s="154">
+      <c r="J29" s="194">
         <v>0.6</v>
       </c>
       <c r="K29" s="38">
@@ -33900,10 +34009,10 @@
       <c r="L29" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="M29" s="153" t="s">
+      <c r="M29" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="N29" s="167" t="s">
+      <c r="N29" s="187" t="s">
         <v>134</v>
       </c>
       <c r="O29" s="21" t="s">
@@ -33930,9 +34039,9 @@
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
-      <c r="Y29" s="224"/>
+      <c r="Y29" s="155"/>
       <c r="Z29" s="67"/>
-      <c r="AA29" s="164"/>
+      <c r="AA29" s="149"/>
       <c r="AB29" s="24" t="s">
         <v>99</v>
       </c>
@@ -33953,19 +34062,19 @@
       <c r="E30" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="159"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="154"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="194"/>
       <c r="K30" s="38">
         <v>3</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="M30" s="154"/>
-      <c r="N30" s="210"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="188"/>
       <c r="O30" s="21" t="s">
         <v>156</v>
       </c>
@@ -33990,11 +34099,11 @@
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
-      <c r="Y30" s="224" t="s">
+      <c r="Y30" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z30" s="67"/>
-      <c r="AA30" s="164"/>
+      <c r="AA30" s="149"/>
       <c r="AB30" s="24" t="s">
         <v>99</v>
       </c>
@@ -34018,16 +34127,16 @@
       <c r="F31" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="177">
+      <c r="G31" s="172">
         <v>264.00599999999997</v>
       </c>
-      <c r="H31" s="154">
+      <c r="H31" s="194">
         <v>1.8</v>
       </c>
-      <c r="I31" s="195">
+      <c r="I31" s="215">
         <v>264</v>
       </c>
-      <c r="J31" s="154">
+      <c r="J31" s="194">
         <v>1.8</v>
       </c>
       <c r="K31" s="51" t="s">
@@ -34036,10 +34145,10 @@
       <c r="L31" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="M31" s="153" t="s">
+      <c r="M31" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="N31" s="167" t="s">
+      <c r="N31" s="187" t="s">
         <v>134</v>
       </c>
       <c r="O31" s="21" t="s">
@@ -34066,9 +34175,9 @@
       <c r="V31" s="24"/>
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
-      <c r="Y31" s="224"/>
+      <c r="Y31" s="155"/>
       <c r="Z31" s="67"/>
-      <c r="AA31" s="164"/>
+      <c r="AA31" s="149"/>
       <c r="AB31" s="24"/>
     </row>
     <row r="32" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34090,18 +34199,18 @@
       <c r="F32" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="G32" s="177"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="154"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="194"/>
       <c r="K32" s="38">
         <v>6</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="154"/>
-      <c r="N32" s="211"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="189"/>
       <c r="O32" s="21" t="s">
         <v>93</v>
       </c>
@@ -34128,9 +34237,9 @@
       </c>
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
-      <c r="Y32" s="224"/>
+      <c r="Y32" s="155"/>
       <c r="Z32" s="67"/>
-      <c r="AA32" s="164"/>
+      <c r="AA32" s="149"/>
       <c r="AB32" s="24"/>
     </row>
     <row r="33" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34148,16 +34257,16 @@
         <v>273</v>
       </c>
       <c r="F33" s="21"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="154"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="194"/>
       <c r="K33" s="50"/>
       <c r="L33" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="M33" s="154"/>
-      <c r="N33" s="210"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="188"/>
       <c r="O33" s="21" t="s">
         <v>119</v>
       </c>
@@ -34176,17 +34285,17 @@
       <c r="T33" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="U33" s="170"/>
+      <c r="U33" s="168"/>
       <c r="V33" s="24" t="s">
         <v>272</v>
       </c>
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
-      <c r="Y33" s="231" t="s">
+      <c r="Y33" s="156" t="s">
         <v>159</v>
       </c>
       <c r="Z33" s="67"/>
-      <c r="AA33" s="164"/>
+      <c r="AA33" s="149"/>
       <c r="AB33" s="24"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -34205,19 +34314,19 @@
       <c r="E34" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="F34" s="160" t="s">
+      <c r="F34" s="182" t="s">
         <v>280</v>
       </c>
-      <c r="G34" s="179">
+      <c r="G34" s="227">
         <v>264.00599999999997</v>
       </c>
-      <c r="H34" s="163">
+      <c r="H34" s="148">
         <v>3</v>
       </c>
-      <c r="I34" s="183">
+      <c r="I34" s="218">
         <v>264</v>
       </c>
-      <c r="J34" s="198" t="s">
+      <c r="J34" s="206" t="s">
         <v>106</v>
       </c>
       <c r="K34" s="51" t="s">
@@ -34226,10 +34335,10 @@
       <c r="L34" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="M34" s="203" t="s">
+      <c r="M34" s="195" t="s">
         <v>133</v>
       </c>
-      <c r="N34" s="160" t="s">
+      <c r="N34" s="182" t="s">
         <v>134</v>
       </c>
       <c r="O34" s="25" t="s">
@@ -34250,13 +34359,13 @@
       <c r="T34" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="170"/>
+      <c r="U34" s="168"/>
       <c r="V34" s="27"/>
       <c r="W34" s="27"/>
       <c r="X34" s="27"/>
-      <c r="Y34" s="232"/>
+      <c r="Y34" s="157"/>
       <c r="Z34" s="69"/>
-      <c r="AA34" s="164"/>
+      <c r="AA34" s="149"/>
       <c r="AB34" s="27"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -34275,19 +34384,19 @@
       <c r="E35" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F35" s="161"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="199"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="207"/>
       <c r="K35" s="51" t="s">
         <v>154</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="M35" s="164"/>
-      <c r="N35" s="206"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="183"/>
       <c r="O35" s="25" t="s">
         <v>119</v>
       </c>
@@ -34314,9 +34423,9 @@
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
-      <c r="Y35" s="232"/>
+      <c r="Y35" s="157"/>
       <c r="Z35" s="69"/>
-      <c r="AA35" s="164"/>
+      <c r="AA35" s="149"/>
       <c r="AB35" s="27"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -34335,19 +34444,19 @@
       <c r="E36" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="149"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="200"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="208"/>
       <c r="K36" s="51" t="s">
         <v>154</v>
       </c>
       <c r="L36" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="M36" s="165"/>
-      <c r="N36" s="149"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="145"/>
       <c r="O36" s="25" t="s">
         <v>119</v>
       </c>
@@ -34368,9 +34477,9 @@
       <c r="V36" s="27"/>
       <c r="W36" s="27"/>
       <c r="X36" s="27"/>
-      <c r="Y36" s="149"/>
+      <c r="Y36" s="145"/>
       <c r="Z36" s="35"/>
-      <c r="AA36" s="164"/>
+      <c r="AA36" s="149"/>
       <c r="AB36" s="27"/>
     </row>
     <row r="37" spans="1:28" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34392,16 +34501,16 @@
       <c r="F37" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="182">
+      <c r="G37" s="176">
         <v>309.46499999999997</v>
       </c>
-      <c r="H37" s="186">
+      <c r="H37" s="197">
         <v>0.6</v>
       </c>
-      <c r="I37" s="182">
+      <c r="I37" s="176">
         <v>37.5</v>
       </c>
-      <c r="J37" s="198" t="s">
+      <c r="J37" s="206" t="s">
         <v>294</v>
       </c>
       <c r="K37" s="51" t="s">
@@ -34410,10 +34519,10 @@
       <c r="L37" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="M37" s="204" t="s">
+      <c r="M37" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="N37" s="207" t="s">
+      <c r="N37" s="184" t="s">
         <v>110</v>
       </c>
       <c r="O37" s="30" t="s">
@@ -34434,17 +34543,17 @@
       <c r="T37" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="U37" s="170"/>
+      <c r="U37" s="168"/>
       <c r="V37" s="33" t="s">
         <v>272</v>
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
-      <c r="Y37" s="233" t="s">
+      <c r="Y37" s="158" t="s">
         <v>159</v>
       </c>
       <c r="Z37" s="71"/>
-      <c r="AA37" s="164"/>
+      <c r="AA37" s="149"/>
       <c r="AB37" s="33"/>
     </row>
     <row r="38" spans="1:28" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34466,18 +34575,18 @@
       <c r="F38" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="182"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="199"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="207"/>
       <c r="K38" s="51" t="s">
         <v>224</v>
       </c>
       <c r="L38" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="M38" s="186"/>
-      <c r="N38" s="208"/>
+      <c r="M38" s="197"/>
+      <c r="N38" s="185"/>
       <c r="O38" s="30" t="s">
         <v>119</v>
       </c>
@@ -34493,10 +34602,10 @@
       <c r="S38" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="T38" s="217" t="s">
+      <c r="T38" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="U38" s="222" t="s">
+      <c r="U38" s="175" t="s">
         <v>300</v>
       </c>
       <c r="V38" s="33" t="s">
@@ -34504,9 +34613,9 @@
       </c>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
-      <c r="Y38" s="233"/>
+      <c r="Y38" s="158"/>
       <c r="Z38" s="71"/>
-      <c r="AA38" s="164"/>
+      <c r="AA38" s="149"/>
       <c r="AB38" s="33"/>
     </row>
     <row r="39" spans="1:28" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34528,18 +34637,18 @@
       <c r="F39" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="G39" s="182"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="200"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="208"/>
       <c r="K39" s="51" t="s">
         <v>224</v>
       </c>
       <c r="L39" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="186"/>
-      <c r="N39" s="209"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="186"/>
       <c r="O39" s="30" t="s">
         <v>119</v>
       </c>
@@ -34555,18 +34664,18 @@
       <c r="S39" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="T39" s="218"/>
-      <c r="U39" s="182"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="176"/>
       <c r="V39" s="33" t="s">
         <v>272</v>
       </c>
       <c r="W39" s="33"/>
       <c r="X39" s="33"/>
-      <c r="Y39" s="224" t="s">
+      <c r="Y39" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z39" s="71"/>
-      <c r="AA39" s="164"/>
+      <c r="AA39" s="149"/>
       <c r="AB39" s="33"/>
     </row>
     <row r="40" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34580,32 +34689,32 @@
         <v>307</v>
       </c>
       <c r="D40" s="22"/>
-      <c r="E40" s="153" t="s">
+      <c r="E40" s="193" t="s">
         <v>308</v>
       </c>
-      <c r="F40" s="158" t="s">
+      <c r="F40" s="165" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="177">
+      <c r="G40" s="172">
         <v>313.02</v>
       </c>
-      <c r="H40" s="154">
+      <c r="H40" s="194">
         <v>2</v>
       </c>
-      <c r="I40" s="177">
+      <c r="I40" s="172">
         <v>313.02</v>
       </c>
-      <c r="J40" s="154">
+      <c r="J40" s="194">
         <v>2</v>
       </c>
       <c r="K40" s="50"/>
       <c r="L40" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="M40" s="153" t="s">
+      <c r="M40" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="N40" s="167" t="s">
+      <c r="N40" s="187" t="s">
         <v>110</v>
       </c>
       <c r="O40" s="21" t="s">
@@ -34623,18 +34732,18 @@
       <c r="S40" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T40" s="158" t="s">
+      <c r="T40" s="165" t="s">
         <v>271</v>
       </c>
-      <c r="U40" s="176" t="s">
+      <c r="U40" s="171" t="s">
         <v>300</v>
       </c>
       <c r="V40" s="24"/>
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
-      <c r="Y40" s="224"/>
+      <c r="Y40" s="155"/>
       <c r="Z40" s="67"/>
-      <c r="AA40" s="164"/>
+      <c r="AA40" s="149"/>
       <c r="AB40" s="28"/>
     </row>
     <row r="41" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34648,18 +34757,18 @@
         <v>162</v>
       </c>
       <c r="D41" s="22"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="154"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="194"/>
       <c r="K41" s="50"/>
       <c r="L41" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="M41" s="154"/>
-      <c r="N41" s="210"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="188"/>
       <c r="O41" s="21" t="s">
         <v>119</v>
       </c>
@@ -34669,16 +34778,16 @@
       <c r="S41" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T41" s="159"/>
-      <c r="U41" s="177"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="172"/>
       <c r="V41" s="24"/>
       <c r="W41" s="24"/>
       <c r="X41" s="24"/>
-      <c r="Y41" s="224" t="s">
+      <c r="Y41" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z41" s="67"/>
-      <c r="AA41" s="164"/>
+      <c r="AA41" s="149"/>
       <c r="AB41" s="28"/>
     </row>
     <row r="42" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34700,10 +34809,10 @@
       <c r="F42" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="G42" s="177">
+      <c r="G42" s="172">
         <v>316.57499999999999</v>
       </c>
-      <c r="H42" s="154">
+      <c r="H42" s="194">
         <v>0.6</v>
       </c>
       <c r="I42" s="21"/>
@@ -34714,10 +34823,10 @@
       <c r="L42" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="M42" s="153" t="s">
+      <c r="M42" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="N42" s="167" t="s">
+      <c r="N42" s="187" t="s">
         <v>110</v>
       </c>
       <c r="O42" s="21" t="s">
@@ -34735,18 +34844,18 @@
       <c r="S42" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="T42" s="158" t="s">
+      <c r="T42" s="165" t="s">
         <v>271</v>
       </c>
-      <c r="U42" s="176" t="s">
+      <c r="U42" s="171" t="s">
         <v>300</v>
       </c>
       <c r="V42" s="24"/>
       <c r="W42" s="24"/>
       <c r="X42" s="24"/>
-      <c r="Y42" s="224"/>
+      <c r="Y42" s="155"/>
       <c r="Z42" s="67"/>
-      <c r="AA42" s="164"/>
+      <c r="AA42" s="149"/>
       <c r="AB42" s="24" t="s">
         <v>317</v>
       </c>
@@ -34770,8 +34879,8 @@
       <c r="F43" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="177"/>
-      <c r="H43" s="154"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="194"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="51" t="s">
@@ -34780,8 +34889,8 @@
       <c r="L43" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="M43" s="154"/>
-      <c r="N43" s="211"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="189"/>
       <c r="O43" s="21" t="s">
         <v>119</v>
       </c>
@@ -34797,16 +34906,16 @@
       <c r="S43" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T43" s="159"/>
-      <c r="U43" s="177"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="172"/>
       <c r="V43" s="24"/>
       <c r="W43" s="24"/>
       <c r="X43" s="24"/>
-      <c r="Y43" s="224" t="s">
+      <c r="Y43" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z43" s="67"/>
-      <c r="AA43" s="164"/>
+      <c r="AA43" s="149"/>
       <c r="AB43" s="28"/>
     </row>
     <row r="44" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34822,8 +34931,8 @@
       <c r="D44" s="22"/>
       <c r="E44" s="24"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="154"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="194"/>
       <c r="I44" s="21">
         <v>264</v>
       </c>
@@ -34834,8 +34943,8 @@
       <c r="L44" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="M44" s="154"/>
-      <c r="N44" s="210"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="188"/>
       <c r="O44" s="21" t="s">
         <v>119</v>
       </c>
@@ -34845,18 +34954,18 @@
       <c r="S44" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T44" s="158" t="s">
+      <c r="T44" s="165" t="s">
         <v>271</v>
       </c>
-      <c r="U44" s="176" t="s">
+      <c r="U44" s="171" t="s">
         <v>300</v>
       </c>
       <c r="V44" s="24"/>
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
-      <c r="Y44" s="224"/>
+      <c r="Y44" s="155"/>
       <c r="Z44" s="67"/>
-      <c r="AA44" s="164"/>
+      <c r="AA44" s="149"/>
       <c r="AB44" s="28"/>
     </row>
     <row r="45" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34878,16 +34987,16 @@
       <c r="F45" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="177">
+      <c r="G45" s="172">
         <v>345.01499999999999</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="194">
         <v>0.6</v>
       </c>
-      <c r="I45" s="177">
+      <c r="I45" s="172">
         <v>37.5</v>
       </c>
-      <c r="J45" s="198" t="s">
+      <c r="J45" s="206" t="s">
         <v>327</v>
       </c>
       <c r="K45" s="51" t="s">
@@ -34896,10 +35005,10 @@
       <c r="L45" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M45" s="153" t="s">
+      <c r="M45" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="N45" s="167" t="s">
+      <c r="N45" s="187" t="s">
         <v>110</v>
       </c>
       <c r="O45" s="21" t="s">
@@ -34917,18 +35026,18 @@
       <c r="S45" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T45" s="159"/>
-      <c r="U45" s="177"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="172"/>
       <c r="V45" s="24"/>
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
-      <c r="Y45" s="224" t="s">
+      <c r="Y45" s="155" t="s">
         <v>159</v>
       </c>
       <c r="Z45" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA45" s="164"/>
+      <c r="AA45" s="149"/>
       <c r="AB45" s="24"/>
     </row>
     <row r="46" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34950,18 +35059,18 @@
       <c r="F46" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="G46" s="177"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="199"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="207"/>
       <c r="K46" s="51" t="s">
         <v>328</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M46" s="154"/>
-      <c r="N46" s="211"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="189"/>
       <c r="O46" s="21" t="s">
         <v>119</v>
       </c>
@@ -34977,16 +35086,16 @@
       <c r="S46" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T46" s="159"/>
-      <c r="U46" s="177"/>
+      <c r="T46" s="166"/>
+      <c r="U46" s="172"/>
       <c r="V46" s="24"/>
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
-      <c r="Y46" s="224"/>
+      <c r="Y46" s="155"/>
       <c r="Z46" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA46" s="164"/>
+      <c r="AA46" s="149"/>
       <c r="AB46" s="24"/>
     </row>
     <row r="47" spans="1:28" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -35008,18 +35117,18 @@
       <c r="F47" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="G47" s="177"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="177"/>
-      <c r="J47" s="200"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="208"/>
       <c r="K47" s="51" t="s">
         <v>328</v>
       </c>
       <c r="L47" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M47" s="154"/>
-      <c r="N47" s="210"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="188"/>
       <c r="O47" s="21" t="s">
         <v>119</v>
       </c>
@@ -35035,18 +35144,18 @@
       <c r="S47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T47" s="158" t="s">
+      <c r="T47" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="U47" s="176" t="s">
+      <c r="U47" s="171" t="s">
         <v>300</v>
       </c>
       <c r="V47" s="24"/>
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
-      <c r="Y47" s="224"/>
+      <c r="Y47" s="155"/>
       <c r="Z47" s="67"/>
-      <c r="AA47" s="164"/>
+      <c r="AA47" s="149"/>
       <c r="AB47" s="24"/>
     </row>
     <row r="48" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35065,19 +35174,19 @@
       <c r="E48" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="F48" s="167" t="s">
+      <c r="F48" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="G48" s="183">
+      <c r="G48" s="218">
         <v>345.01499999999999</v>
       </c>
-      <c r="H48" s="187">
+      <c r="H48" s="209">
         <v>2</v>
       </c>
-      <c r="I48" s="183" t="s">
+      <c r="I48" s="218" t="s">
         <v>340</v>
       </c>
-      <c r="J48" s="198" t="s">
+      <c r="J48" s="206" t="s">
         <v>294</v>
       </c>
       <c r="K48" s="51" t="s">
@@ -35086,10 +35195,10 @@
       <c r="L48" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M48" s="205" t="s">
+      <c r="M48" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="N48" s="167" t="s">
+      <c r="N48" s="187" t="s">
         <v>110</v>
       </c>
       <c r="O48" s="21" t="s">
@@ -35107,18 +35216,18 @@
       <c r="S48" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T48" s="159"/>
-      <c r="U48" s="177"/>
+      <c r="T48" s="166"/>
+      <c r="U48" s="172"/>
       <c r="V48" s="24"/>
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
-      <c r="Y48" s="234" t="s">
+      <c r="Y48" s="159" t="s">
         <v>159</v>
       </c>
       <c r="Z48" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA48" s="164"/>
+      <c r="AA48" s="149"/>
       <c r="AB48" s="24"/>
     </row>
     <row r="49" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35137,19 +35246,19 @@
       <c r="E49" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="F49" s="168"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="199"/>
+      <c r="F49" s="221"/>
+      <c r="G49" s="219"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="219"/>
+      <c r="J49" s="207"/>
       <c r="K49" s="51" t="s">
         <v>328</v>
       </c>
       <c r="L49" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M49" s="188"/>
-      <c r="N49" s="211"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="189"/>
       <c r="O49" s="21" t="s">
         <v>119</v>
       </c>
@@ -35170,11 +35279,11 @@
       <c r="V49" s="24"/>
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
-      <c r="Y49" s="235"/>
+      <c r="Y49" s="160"/>
       <c r="Z49" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA49" s="164"/>
+      <c r="AA49" s="149"/>
       <c r="AB49" s="24"/>
       <c r="AD49" s="73"/>
     </row>
@@ -35194,19 +35303,19 @@
       <c r="E50" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F50" s="147"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="185"/>
-      <c r="J50" s="200"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="220"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="220"/>
+      <c r="J50" s="208"/>
       <c r="K50" s="51" t="s">
         <v>328</v>
       </c>
       <c r="L50" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="M50" s="189"/>
-      <c r="N50" s="147"/>
+      <c r="M50" s="200"/>
+      <c r="N50" s="161"/>
       <c r="O50" s="21" t="s">
         <v>119</v>
       </c>
@@ -35227,9 +35336,9 @@
       <c r="V50" s="24"/>
       <c r="W50" s="24"/>
       <c r="X50" s="24"/>
-      <c r="Y50" s="147"/>
+      <c r="Y50" s="161"/>
       <c r="Z50" s="38"/>
-      <c r="AA50" s="164"/>
+      <c r="AA50" s="149"/>
       <c r="AB50" s="24"/>
       <c r="AD50" s="73"/>
     </row>
@@ -35249,19 +35358,19 @@
       <c r="E51" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="F51" s="167" t="s">
+      <c r="F51" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="G51" s="183">
+      <c r="G51" s="218">
         <v>19.466999999999999</v>
       </c>
-      <c r="H51" s="187">
+      <c r="H51" s="209">
         <v>6.45</v>
       </c>
-      <c r="I51" s="183" t="s">
+      <c r="I51" s="218" t="s">
         <v>340</v>
       </c>
-      <c r="J51" s="187" t="s">
+      <c r="J51" s="209" t="s">
         <v>327</v>
       </c>
       <c r="K51" s="51" t="s">
@@ -35270,10 +35379,10 @@
       <c r="L51" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M51" s="205" t="s">
+      <c r="M51" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="N51" s="167" t="s">
+      <c r="N51" s="187" t="s">
         <v>110</v>
       </c>
       <c r="O51" s="21" t="s">
@@ -35300,11 +35409,11 @@
       <c r="V51" s="24"/>
       <c r="W51" s="24"/>
       <c r="X51" s="24"/>
-      <c r="Y51" s="234" t="s">
+      <c r="Y51" s="159" t="s">
         <v>159</v>
       </c>
       <c r="Z51" s="67"/>
-      <c r="AA51" s="164"/>
+      <c r="AA51" s="149"/>
       <c r="AB51" s="24"/>
     </row>
     <row r="52" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35323,19 +35432,19 @@
       <c r="E52" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="F52" s="168"/>
-      <c r="G52" s="184"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="184"/>
-      <c r="J52" s="188"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="219"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="219"/>
+      <c r="J52" s="199"/>
       <c r="K52" s="51" t="s">
         <v>154</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M52" s="188"/>
-      <c r="N52" s="211"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="189"/>
       <c r="O52" s="21" t="s">
         <v>119</v>
       </c>
@@ -35360,9 +35469,9 @@
       <c r="V52" s="24"/>
       <c r="W52" s="24"/>
       <c r="X52" s="24"/>
-      <c r="Y52" s="235"/>
+      <c r="Y52" s="160"/>
       <c r="Z52" s="67"/>
-      <c r="AA52" s="164"/>
+      <c r="AA52" s="149"/>
       <c r="AB52" s="24"/>
       <c r="AD52" s="73"/>
     </row>
@@ -35382,19 +35491,19 @@
       <c r="E53" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="F53" s="147"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="189"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="220"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="220"/>
+      <c r="J53" s="200"/>
       <c r="K53" s="51" t="s">
         <v>154</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="M53" s="189"/>
-      <c r="N53" s="147"/>
+      <c r="M53" s="200"/>
+      <c r="N53" s="161"/>
       <c r="O53" s="21" t="s">
         <v>119</v>
       </c>
@@ -35415,9 +35524,9 @@
       <c r="V53" s="24"/>
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
-      <c r="Y53" s="147"/>
+      <c r="Y53" s="161"/>
       <c r="Z53" s="38"/>
-      <c r="AA53" s="165"/>
+      <c r="AA53" s="150"/>
       <c r="AB53" s="24"/>
       <c r="AD53" s="73"/>
     </row>
@@ -35492,7 +35601,7 @@
         <v>97</v>
       </c>
       <c r="Z54" s="69"/>
-      <c r="AA54" s="163" t="s">
+      <c r="AA54" s="148" t="s">
         <v>366</v>
       </c>
       <c r="AB54" s="27"/>
@@ -35568,7 +35677,7 @@
         <v>97</v>
       </c>
       <c r="Z55" s="69"/>
-      <c r="AA55" s="164"/>
+      <c r="AA55" s="149"/>
       <c r="AB55" s="74"/>
     </row>
     <row r="56" spans="1:30" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35642,7 +35751,7 @@
         <v>97</v>
       </c>
       <c r="Z56" s="69"/>
-      <c r="AA56" s="164"/>
+      <c r="AA56" s="149"/>
       <c r="AB56" s="74"/>
     </row>
     <row r="57" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -35716,7 +35825,7 @@
         <v>97</v>
       </c>
       <c r="Z57" s="69"/>
-      <c r="AA57" s="164"/>
+      <c r="AA57" s="149"/>
       <c r="AB57" s="27"/>
     </row>
     <row r="58" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -35790,7 +35899,7 @@
         <v>97</v>
       </c>
       <c r="Z58" s="69"/>
-      <c r="AA58" s="164"/>
+      <c r="AA58" s="149"/>
       <c r="AB58" s="27"/>
     </row>
     <row r="59" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -35864,7 +35973,7 @@
         <v>97</v>
       </c>
       <c r="Z59" s="69"/>
-      <c r="AA59" s="165"/>
+      <c r="AA59" s="150"/>
       <c r="AB59" s="27"/>
     </row>
     <row r="60" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36014,7 +36123,7 @@
       <c r="Z61" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA61" s="164" t="s">
+      <c r="AA61" s="149" t="s">
         <v>398</v>
       </c>
       <c r="AB61" s="24" t="s">
@@ -36092,7 +36201,7 @@
       <c r="Z62" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA62" s="164"/>
+      <c r="AA62" s="149"/>
       <c r="AB62" s="24"/>
     </row>
     <row r="63" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36168,7 +36277,7 @@
         <v>394</v>
       </c>
       <c r="Z63" s="67"/>
-      <c r="AA63" s="164"/>
+      <c r="AA63" s="149"/>
       <c r="AB63" s="24" t="s">
         <v>408</v>
       </c>
@@ -36246,7 +36355,7 @@
         <v>394</v>
       </c>
       <c r="Z64" s="67"/>
-      <c r="AA64" s="164"/>
+      <c r="AA64" s="149"/>
       <c r="AB64" s="24" t="s">
         <v>408</v>
       </c>
@@ -36322,7 +36431,7 @@
         <v>394</v>
       </c>
       <c r="Z65" s="72"/>
-      <c r="AA65" s="164"/>
+      <c r="AA65" s="149"/>
       <c r="AB65" s="62"/>
     </row>
     <row r="66" spans="1:30" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36396,7 +36505,7 @@
         <v>394</v>
       </c>
       <c r="Z66" s="72"/>
-      <c r="AA66" s="164"/>
+      <c r="AA66" s="149"/>
       <c r="AB66" s="62"/>
     </row>
     <row r="67" spans="1:30" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36472,7 +36581,7 @@
       <c r="Z67" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA67" s="164"/>
+      <c r="AA67" s="149"/>
       <c r="AB67" s="24" t="s">
         <v>422</v>
       </c>
@@ -36548,7 +36657,7 @@
         <v>394</v>
       </c>
       <c r="Z68" s="69"/>
-      <c r="AA68" s="164"/>
+      <c r="AA68" s="149"/>
       <c r="AB68" s="27" t="s">
         <v>154</v>
       </c>
@@ -36624,7 +36733,7 @@
         <v>394</v>
       </c>
       <c r="Z69" s="69"/>
-      <c r="AA69" s="164"/>
+      <c r="AA69" s="149"/>
       <c r="AB69" s="27" t="s">
         <v>154</v>
       </c>
@@ -36700,7 +36809,7 @@
         <v>394</v>
       </c>
       <c r="Z70" s="69"/>
-      <c r="AA70" s="164"/>
+      <c r="AA70" s="149"/>
       <c r="AB70" s="27" t="s">
         <v>154</v>
       </c>
@@ -36776,7 +36885,7 @@
         <v>394</v>
       </c>
       <c r="Z71" s="69"/>
-      <c r="AA71" s="164"/>
+      <c r="AA71" s="149"/>
       <c r="AB71" s="27" t="s">
         <v>154</v>
       </c>
@@ -36854,7 +36963,7 @@
         <v>394</v>
       </c>
       <c r="Z72" s="69"/>
-      <c r="AA72" s="164"/>
+      <c r="AA72" s="149"/>
       <c r="AB72" s="27"/>
     </row>
     <row r="73" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -36928,7 +37037,7 @@
         <v>394</v>
       </c>
       <c r="Z73" s="69"/>
-      <c r="AA73" s="164"/>
+      <c r="AA73" s="149"/>
       <c r="AB73" s="27"/>
     </row>
     <row r="74" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -37002,7 +37111,7 @@
         <v>394</v>
       </c>
       <c r="Z74" s="69"/>
-      <c r="AA74" s="164"/>
+      <c r="AA74" s="149"/>
       <c r="AB74" s="27" t="s">
         <v>160</v>
       </c>
@@ -37078,7 +37187,7 @@
         <v>394</v>
       </c>
       <c r="Z75" s="69"/>
-      <c r="AA75" s="164"/>
+      <c r="AA75" s="149"/>
       <c r="AB75" s="27" t="s">
         <v>160</v>
       </c>
@@ -37154,7 +37263,7 @@
         <v>394</v>
       </c>
       <c r="Z76" s="69"/>
-      <c r="AA76" s="164"/>
+      <c r="AA76" s="149"/>
       <c r="AB76" s="27" t="s">
         <v>160</v>
       </c>
@@ -37230,7 +37339,7 @@
         <v>394</v>
       </c>
       <c r="Z77" s="69"/>
-      <c r="AA77" s="164"/>
+      <c r="AA77" s="149"/>
       <c r="AB77" s="27" t="s">
         <v>160</v>
       </c>
@@ -37306,7 +37415,7 @@
         <v>394</v>
       </c>
       <c r="Z78" s="69"/>
-      <c r="AA78" s="164"/>
+      <c r="AA78" s="149"/>
       <c r="AB78" s="27"/>
     </row>
     <row r="79" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -37380,7 +37489,7 @@
         <v>394</v>
       </c>
       <c r="Z79" s="69"/>
-      <c r="AA79" s="164"/>
+      <c r="AA79" s="149"/>
       <c r="AB79" s="27"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -37454,7 +37563,7 @@
         <v>394</v>
       </c>
       <c r="Z80" s="69"/>
-      <c r="AA80" s="164"/>
+      <c r="AA80" s="149"/>
       <c r="AB80" s="27"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -37532,7 +37641,7 @@
       <c r="Z81" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="AA81" s="164"/>
+      <c r="AA81" s="149"/>
       <c r="AB81" s="27"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -37608,7 +37717,7 @@
       <c r="Z82" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA82" s="164"/>
+      <c r="AA82" s="149"/>
       <c r="AB82" s="27"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -37684,7 +37793,7 @@
       <c r="Z83" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" s="164"/>
+      <c r="AA83" s="149"/>
       <c r="AB83" s="27"/>
     </row>
     <row r="84" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -37762,7 +37871,7 @@
       <c r="Z84" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA84" s="164"/>
+      <c r="AA84" s="149"/>
       <c r="AB84" s="27"/>
     </row>
     <row r="85" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -37838,7 +37947,7 @@
       <c r="Z85" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA85" s="164"/>
+      <c r="AA85" s="149"/>
       <c r="AB85" s="27"/>
     </row>
     <row r="86" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -37916,7 +38025,7 @@
       <c r="Z86" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA86" s="164"/>
+      <c r="AA86" s="149"/>
       <c r="AB86" s="27"/>
     </row>
     <row r="87" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37992,7 +38101,7 @@
       <c r="Z87" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA87" s="164"/>
+      <c r="AA87" s="149"/>
       <c r="AB87" s="24" t="s">
         <v>516</v>
       </c>
@@ -38070,7 +38179,7 @@
       <c r="Z88" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA88" s="164"/>
+      <c r="AA88" s="149"/>
       <c r="AB88" s="24" t="s">
         <v>521</v>
       </c>
@@ -38148,7 +38257,7 @@
       <c r="Z89" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA89" s="164"/>
+      <c r="AA89" s="149"/>
       <c r="AB89" s="24" t="s">
         <v>422</v>
       </c>
@@ -38226,7 +38335,7 @@
       <c r="Z90" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA90" s="164"/>
+      <c r="AA90" s="149"/>
       <c r="AB90" s="24"/>
     </row>
     <row r="91" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -38302,7 +38411,7 @@
         <v>394</v>
       </c>
       <c r="Z91" s="67"/>
-      <c r="AA91" s="164"/>
+      <c r="AA91" s="149"/>
       <c r="AB91" s="24" t="s">
         <v>521</v>
       </c>
@@ -38378,7 +38487,7 @@
         <v>394</v>
       </c>
       <c r="Z92" s="69"/>
-      <c r="AA92" s="164"/>
+      <c r="AA92" s="149"/>
       <c r="AB92" s="27"/>
     </row>
     <row r="93" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -38454,7 +38563,7 @@
         <v>394</v>
       </c>
       <c r="Z93" s="67"/>
-      <c r="AA93" s="164"/>
+      <c r="AA93" s="149"/>
       <c r="AB93" s="24"/>
     </row>
     <row r="94" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -38530,7 +38639,7 @@
         <v>394</v>
       </c>
       <c r="Z94" s="67"/>
-      <c r="AA94" s="164"/>
+      <c r="AA94" s="149"/>
       <c r="AB94" s="24"/>
     </row>
     <row r="95" spans="1:28" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -38606,7 +38715,7 @@
         <v>394</v>
       </c>
       <c r="Z95" s="67"/>
-      <c r="AA95" s="164"/>
+      <c r="AA95" s="149"/>
       <c r="AB95" s="24"/>
     </row>
     <row r="96" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -38678,7 +38787,7 @@
       <c r="Z96" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="AA96" s="164"/>
+      <c r="AA96" s="149"/>
       <c r="AB96" s="24" t="s">
         <v>99</v>
       </c>
@@ -38756,7 +38865,7 @@
         <v>394</v>
       </c>
       <c r="Z97" s="69"/>
-      <c r="AA97" s="164"/>
+      <c r="AA97" s="149"/>
       <c r="AB97" s="27" t="s">
         <v>160</v>
       </c>
@@ -38834,7 +38943,7 @@
         <v>394</v>
       </c>
       <c r="Z98" s="69"/>
-      <c r="AA98" s="165"/>
+      <c r="AA98" s="150"/>
       <c r="AB98" s="27" t="s">
         <v>160</v>
       </c>
@@ -39248,7 +39357,7 @@
       <c r="X104" s="24"/>
       <c r="Y104" s="67"/>
       <c r="Z104" s="67"/>
-      <c r="AA104" s="227" t="s">
+      <c r="AA104" s="151" t="s">
         <v>598</v>
       </c>
       <c r="AB104" s="92"/>
@@ -39300,7 +39409,7 @@
       <c r="X105" s="24"/>
       <c r="Y105" s="67"/>
       <c r="Z105" s="67"/>
-      <c r="AA105" s="228"/>
+      <c r="AA105" s="152"/>
       <c r="AB105" s="92"/>
     </row>
     <row r="106" spans="1:28" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39350,7 +39459,7 @@
       <c r="X106" s="24"/>
       <c r="Y106" s="67"/>
       <c r="Z106" s="67"/>
-      <c r="AA106" s="228"/>
+      <c r="AA106" s="152"/>
       <c r="AB106" s="92"/>
     </row>
     <row r="107" spans="1:28" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39400,7 +39509,7 @@
       <c r="X107" s="24"/>
       <c r="Y107" s="67"/>
       <c r="Z107" s="67"/>
-      <c r="AA107" s="228"/>
+      <c r="AA107" s="152"/>
       <c r="AB107" s="92"/>
     </row>
     <row r="108" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39448,7 +39557,7 @@
       <c r="X108" s="62"/>
       <c r="Y108" s="72"/>
       <c r="Z108" s="72"/>
-      <c r="AA108" s="228"/>
+      <c r="AA108" s="152"/>
       <c r="AB108" s="91"/>
     </row>
     <row r="109" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39496,7 +39605,7 @@
       <c r="X109" s="62"/>
       <c r="Y109" s="72"/>
       <c r="Z109" s="72"/>
-      <c r="AA109" s="228"/>
+      <c r="AA109" s="152"/>
       <c r="AB109" s="91"/>
     </row>
     <row r="110" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39542,7 +39651,7 @@
       <c r="X110" s="62"/>
       <c r="Y110" s="72"/>
       <c r="Z110" s="72"/>
-      <c r="AA110" s="228"/>
+      <c r="AA110" s="152"/>
       <c r="AB110" s="91"/>
     </row>
     <row r="111" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39588,7 +39697,7 @@
       <c r="X111" s="62"/>
       <c r="Y111" s="72"/>
       <c r="Z111" s="72"/>
-      <c r="AA111" s="228"/>
+      <c r="AA111" s="152"/>
       <c r="AB111" s="91"/>
     </row>
     <row r="112" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39634,7 +39743,7 @@
       <c r="X112" s="62"/>
       <c r="Y112" s="72"/>
       <c r="Z112" s="72"/>
-      <c r="AA112" s="228"/>
+      <c r="AA112" s="152"/>
       <c r="AB112" s="91"/>
     </row>
     <row r="113" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39680,7 +39789,7 @@
       <c r="X113" s="62"/>
       <c r="Y113" s="72"/>
       <c r="Z113" s="72"/>
-      <c r="AA113" s="228"/>
+      <c r="AA113" s="152"/>
       <c r="AB113" s="91"/>
     </row>
     <row r="114" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39728,7 +39837,7 @@
       <c r="X114" s="62"/>
       <c r="Y114" s="72"/>
       <c r="Z114" s="72"/>
-      <c r="AA114" s="228"/>
+      <c r="AA114" s="152"/>
       <c r="AB114" s="91"/>
     </row>
     <row r="115" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39776,7 +39885,7 @@
       <c r="X115" s="62"/>
       <c r="Y115" s="72"/>
       <c r="Z115" s="72"/>
-      <c r="AA115" s="228"/>
+      <c r="AA115" s="152"/>
       <c r="AB115" s="91"/>
     </row>
     <row r="116" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39824,7 +39933,7 @@
       <c r="X116" s="62"/>
       <c r="Y116" s="72"/>
       <c r="Z116" s="72"/>
-      <c r="AA116" s="228"/>
+      <c r="AA116" s="152"/>
       <c r="AB116" s="91"/>
     </row>
     <row r="117" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39872,7 +39981,7 @@
       <c r="X117" s="62"/>
       <c r="Y117" s="72"/>
       <c r="Z117" s="72"/>
-      <c r="AA117" s="228"/>
+      <c r="AA117" s="152"/>
       <c r="AB117" s="91"/>
     </row>
     <row r="118" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39918,7 +40027,7 @@
       <c r="X118" s="62"/>
       <c r="Y118" s="72"/>
       <c r="Z118" s="72"/>
-      <c r="AA118" s="228"/>
+      <c r="AA118" s="152"/>
       <c r="AB118" s="91"/>
     </row>
     <row r="119" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -39964,7 +40073,7 @@
       <c r="X119" s="62"/>
       <c r="Y119" s="72"/>
       <c r="Z119" s="72"/>
-      <c r="AA119" s="228"/>
+      <c r="AA119" s="152"/>
       <c r="AB119" s="91"/>
     </row>
     <row r="120" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -40012,7 +40121,7 @@
       <c r="X120" s="62"/>
       <c r="Y120" s="72"/>
       <c r="Z120" s="72"/>
-      <c r="AA120" s="228"/>
+      <c r="AA120" s="152"/>
       <c r="AB120" s="91"/>
     </row>
     <row r="121" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -40060,7 +40169,7 @@
       <c r="X121" s="62"/>
       <c r="Y121" s="72"/>
       <c r="Z121" s="72"/>
-      <c r="AA121" s="228"/>
+      <c r="AA121" s="152"/>
       <c r="AB121" s="91"/>
     </row>
     <row r="122" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -40106,7 +40215,7 @@
       <c r="X122" s="62"/>
       <c r="Y122" s="72"/>
       <c r="Z122" s="72"/>
-      <c r="AA122" s="228"/>
+      <c r="AA122" s="152"/>
       <c r="AB122" s="91"/>
     </row>
     <row r="123" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -40152,7 +40261,7 @@
       <c r="X123" s="62"/>
       <c r="Y123" s="72"/>
       <c r="Z123" s="72"/>
-      <c r="AA123" s="228"/>
+      <c r="AA123" s="152"/>
       <c r="AB123" s="91"/>
     </row>
     <row r="124" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -40198,7 +40307,7 @@
       <c r="X124" s="62"/>
       <c r="Y124" s="72"/>
       <c r="Z124" s="72"/>
-      <c r="AA124" s="228"/>
+      <c r="AA124" s="152"/>
       <c r="AB124" s="91"/>
     </row>
     <row r="125" spans="1:28" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -40244,7 +40353,7 @@
       <c r="X125" s="62"/>
       <c r="Y125" s="72"/>
       <c r="Z125" s="72"/>
-      <c r="AA125" s="228"/>
+      <c r="AA125" s="152"/>
       <c r="AB125" s="91"/>
     </row>
     <row r="126" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -40290,7 +40399,7 @@
       <c r="X126" s="27"/>
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
-      <c r="AA126" s="228"/>
+      <c r="AA126" s="152"/>
       <c r="AB126" s="27"/>
     </row>
     <row r="127" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -40336,7 +40445,7 @@
       <c r="X127" s="27"/>
       <c r="Y127" s="27"/>
       <c r="Z127" s="27"/>
-      <c r="AA127" s="228"/>
+      <c r="AA127" s="152"/>
       <c r="AB127" s="27"/>
     </row>
     <row r="128" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -40382,7 +40491,7 @@
       <c r="X128" s="27"/>
       <c r="Y128" s="27"/>
       <c r="Z128" s="27"/>
-      <c r="AA128" s="228"/>
+      <c r="AA128" s="152"/>
       <c r="AB128" s="27"/>
     </row>
     <row r="129" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -40426,7 +40535,7 @@
       <c r="X129" s="27"/>
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
-      <c r="AA129" s="229"/>
+      <c r="AA129" s="153"/>
       <c r="AB129" s="27"/>
     </row>
     <row r="130" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -41026,141 +41135,6 @@
   </sheetData>
   <autoFilter ref="A2:AD144" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="159">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AA3:AA10"/>
-    <mergeCell ref="AA11:AA53"/>
-    <mergeCell ref="AA54:AA59"/>
-    <mergeCell ref="AA61:AA98"/>
-    <mergeCell ref="AA104:AA129"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="Y30:Y32"/>
-    <mergeCell ref="Y33:Y36"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Y45:Y47"/>
-    <mergeCell ref="Y48:Y50"/>
-    <mergeCell ref="Y51:Y53"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y16:Y19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="U44:U46"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="N45:N47"/>
-    <mergeCell ref="N48:N50"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
@@ -41185,6 +41159,141 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y16:Y19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AA3:AA10"/>
+    <mergeCell ref="AA11:AA53"/>
+    <mergeCell ref="AA54:AA59"/>
+    <mergeCell ref="AA61:AA98"/>
+    <mergeCell ref="AA104:AA129"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="Y30:Y32"/>
+    <mergeCell ref="Y33:Y36"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Y45:Y47"/>
+    <mergeCell ref="Y48:Y50"/>
+    <mergeCell ref="Y51:Y53"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
